--- a/branches/Richard-IG/observations-summary.xlsx
+++ b/branches/Richard-IG/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>covid19-death</t>
   </si>
   <si>
-    <t>Covid19 Death</t>
+    <t>Death</t>
   </si>
   <si>
     <t/>
@@ -71,7 +71,7 @@
     <t>covid19-long-covid-post-covid</t>
   </si>
   <si>
-    <t>Covid19 Long Covid / Post-Covid</t>
+    <t>Long Covid / Post-Covid</t>
   </si>
   <si>
     <t>SNOMED CT#1119303003</t>
@@ -80,7 +80,7 @@
     <t>covid19-recovered-or-symptoms-resolved</t>
   </si>
   <si>
-    <t>Covid19 Recovered Or Symptoms Resolved</t>
+    <t>Recovered Or Symptoms Resolved</t>
   </si>
   <si>
     <t>SNOMED CT#370996005</t>
